--- a/petro-web-scraping/petronasfinalfiles/mesraoutlets-up-to-grabmesra.xlsx
+++ b/petro-web-scraping/petronasfinalfiles/mesraoutlets-up-to-grabmesra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,16 +434,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outlet_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>outlet_address</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>locator_town</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SPRINT HIGHWAY</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -457,8 +468,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EAST WEST LINK</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -472,8 +485,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>JALAN JELATEK 2</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -487,8 +502,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TMN DAGANG</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -502,8 +519,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MUTIARA DAMANSARA</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -517,8 +536,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PEKAN AMPANG</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -532,8 +553,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>JALAN KOLAM AYER LAMA</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -547,8 +570,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TEMASYA</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -562,8 +587,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>USJ 9</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -577,8 +604,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SAUJANA PUCHONG</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -592,8 +621,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BUKIT RAHMAN PUTRA</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -607,8 +638,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PUTRA HEIGHT 2</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -622,8 +655,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BDR SAUJANA PUTRA</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -637,8 +672,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>KLS, ARAH KUALA LUMPUR</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -652,8 +689,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PRIMA SAUJANA 1</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -667,8 +706,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SHAPADU HIGHWAY</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -682,8 +723,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PUNCAK ALAM 2</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -697,150 +740,689 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BDR BARU NILAI</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Lot 9252 Bandar Baru Nilai Mukim Labu, 71800 Nilai, Negeri Sembilan</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>KLIA 2</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Jalan Terminal, Klia, 43900 Sepang, Selangor</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Putrajaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Kuang, Selangor</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TMN CAHAYA MASAI</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>New Lot Ptd 160926 Hs (D) 338709, Taman Cahaya Masai, Mukim Plentong, 81750 Johor Bahru, Johor</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Pasir Gudang, Johor</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>KOTA TINGGI BYPASS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Ptd 40120, Jalan Kota Tinggi-Bypass, 81900 Kota Tinggi, Johor</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Pasir Gudang, Johor</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Lot 9252 Bandar Baru Nilai Mukim Labu, 71800 Nilai, Negeri Sembilan</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Johor Bahru, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>KM 4 JALAN SALLEH</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Lot 1311 Gm 3713, Mukim Bandar Muar, Jalan Salleh, 84000 Muar, Johor</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Muar, Johor</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>JLN LORONG PANDAN</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Lot Pt 189, H.S.(D) 66194, Jalan Lorong Pandan, Pekan Klebang, Seksyen 4, 75450 , Melaka</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Bandaraya Melaka, Melaka Raya, Malacca</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>REMBAU</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Lot 2509 Mukim Chembong, 73100 Rembau, Negeri Sembilan</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Jalan Terminal, Klia, 43900 Sepang, Selangor</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Seremban, Negeri Sembilan</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Masjid Tanah, Melaka</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>JALAN DATO LIM HOE LEK</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Lot Pt 57349, Hs (D) 19022, Jalan Dato' Lim Hoe Lek, 25200 Kuantan, Pahang</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Kuantan, Pahang</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>JALAN TELUK SISEK</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Lot Pt 21123, Jalan Teluk Sisek, 25000 Kuantan, Pahang</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Kuantan, Pahang</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>JALAN HAJI AHMAD</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Lot 5093, Jalan Hj Ahmad, 25050 Kuantan, Pahang</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Kuantan, Pahang</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>JALAN AIR PUTIH</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Lot 33050 Jalan Air Puteh, 25300 Kuantan, Pahang</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Kuantan, Pahang</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TANJONG LUMPUR</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Lot 36622, Tanjung Lumpur, 26060 Kuantan, Pahang</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Kuantan, Pahang</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BANDAR INDERA MAHKOTA</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Lot Pt 33423 Sektor 1, Bandar Indera Mahkota, 25000 Kuantan, Pahang</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Kuantan, Pahang</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>JLN KUANTAN-SG LEMBING</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Lot Pt 100381, Hs(D) 33924, Jalan Kuantan - Sungai Lembing, 25200 Kuantan, Pahang</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Kuantan, Pahang</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BANDAR KUANTAN PUTRI</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Bandar Baru Kuantan Putri, Jalan Pekan, 28100 Kuantan, Pahang</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Kuantan, Pahang</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PERAMU 2</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Lot 879, Gm 837, Mukim Langgar, 26600 Pekan, Pahang</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Kuantan, Pahang</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>WAKAF BHARU</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Lot Pt 36982, Hs(M)25510, Wakaf Bharu, Mukim Kuala Nerus, 21300 Kuala Terengganu, Terengganu</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Kuala Terengganu, Terengganu</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MACHANG BYPASS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Machang Bypass, Lot Pt 4791 Hs(M) Kg. Kweng Hitam, Jalan Kuala Krai, 18500 Machang, Kelantan</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Jerteh, Terengganu</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>JALAN BAYAM</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Lot 2712 Gm 1783, Jalan Bayam, 15200 , Kelantan</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Kota Bharu, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BDR BARU TUNJONG</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>S/65, Lot 662, Lebuhraya Jalan Pasir Mas-Salor, 15100 Kota Bharu, Kelantan</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Kota Bharu, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PENGKALAN KUBOR</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Lot 996, Mukim Geting, Pengkalan Kubur, 16200 Tumpat, Kelantan</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Tumpat, Kelantan</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Lot 2712 Gm 1783, Jalan Bayam, 15200 , Kelantan</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Tumpat, Kelantan</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>S/65, Lot 662, Lebuhraya Jalan Pasir Mas-Salor, 15100 Kota Bharu, Kelantan</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Tumpat, Kelantan</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Kota Bharu, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>KG GAUNG</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Lot 599 Mukim Gua, Kuala Lemal, 17000 Pasir Mas, Kelantan</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Tumpat, Kelantan</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Kota Bharu, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>GUA MUSANG</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Lot 169, Bandar Baru Gua Musang, 18300 Gua Musang, Kelantan</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Gua Musang, Kelantan</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>KAMPUNG SIMEE</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Lot Pt 66101, No. 8, Jalan Ghazali Jawi Off Jalan Fair Park (Kg Simme), 31400 Ipoh, Perak</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ipoh, Perak</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>KLABANG JAYA</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Lot 92889, Km 9, Jalan Ipoh - Chemor, 31200 Ipoh, Perak</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ipoh, Perak</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BATU 8 LABUK BY PASS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Cl 075209602, Batu 8, Japan Lintas Labuk, Peti Surat 1426, 90715 Sandakan, Sabah</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sandakan, Sabah</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>JLN KUHARA 2</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Lot Tl107528772 Km 3 Jalan Kuhara, 91000 Tawau, Sabah</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Tawau, Sabah</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>JALAN SEGAMA</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Batu 7, Jalan Segama , Peti Surat 5, 91110 Lahad Datu, Sabah</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Lahad Datu, Sabah</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BAN HOCK</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Lot 45, Section 52, Kuching Town Land District, Jalan Ban Hock, 93100 Kuching, Sarawak</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Kuching, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>HEIGHT DRIVE</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Sublot 195 ( New Sublot 98 Height Drive ) Jalan Stutong, 93350 Kuching, Sarawak</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Kuching, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ISTHMUS (KUCHING BOUND)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Lot 3118, Block 7, Muara Tebas Land District, Tanjong Seberang Pending Point, Sejingkat, 93050 Kuching, Sarawak</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Kuching, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>KOTA SAMARAHAN</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Lot 9098, Block 26, Muara Tuang Land District, Kota Samarahan Expressway, 94300 , Sarawak</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Kuching, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SAMARAHAN EXPRESSWAY</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Lot 1537 Block 26, Muara Tuang Land District, 94300 Kota Samarahan, Sarawak</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Kuching, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PUJUT 8</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Lot 318 Blok 3 Jln Pujut Lutong, 98000 Miri, Sarawak</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Miri, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PUJUT-LUTONG</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Lot 1876, Jalan Pujut-Lutong, Miri Consession Land District, 98000 Miri, Sarawak</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Miri, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>JALAN BULAN SABIT</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Lot 1050 Block 7 Mcld Jalan Bulan Sabit, 98000 Miri, Sarawak</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Miri, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PERMYJAYA</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Lot 6268 Blok 10, Kuala Baram Land District, 98000 Miri, Sarawak</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Miri, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>LUTONG</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Lot 23, Block 1, Miri Concession Land District Lutong Bazaar, 98000 Miri, Sarawak</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Miri, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>LUAK BAY</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Lot 4743, Block 1, Lambir Land District, Jalan Bakam, 98008 Miri, Sarawak</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Miri, Sarawak</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>JALAN ROCK</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Lot 1384, Section 10, Kcld, Rock Road, 93200 Kuching, Sarawak</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Sri Aman, Sarawak</t>
         </is>
